--- a/ppt/2020/2020.3.todo.xlsx
+++ b/ppt/2020/2020.3.todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="15075" windowHeight="4455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="15075" windowHeight="4455" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="系统之美" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Task-紧急重要-80%" sheetId="5" r:id="rId3"/>
     <sheet name="Task-不紧急不重要-20%" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
   <si>
     <t>工作40分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +234,54 @@
   </si>
   <si>
     <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群--成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群会议信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个用户的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他 汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并成一个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -689,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -771,7 +820,7 @@
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -782,7 +831,7 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -790,21 +839,15 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -923,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A6:C12"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -987,4 +1030,81 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ppt/2020/2020.3.todo.xlsx
+++ b/ppt/2020/2020.3.todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="15075" windowHeight="4455" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="15075" windowHeight="4455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="系统之美" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t>工作40分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>redis数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,6 +278,34 @@
   </si>
   <si>
     <t>合并成一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花盆编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第几天开花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>window窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1--3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2--4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3--5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -338,12 +362,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -352,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -372,6 +411,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -738,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -753,7 +798,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4">
-        <v>43928</v>
+        <v>43937</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -828,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -839,15 +884,21 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1034,77 +1085,122 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7">
+        <v>2</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7">
+        <v>3</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>